--- a/Updated Result_Cognitive Load Classification_Aha! Moment Prediction.xlsx
+++ b/Updated Result_Cognitive Load Classification_Aha! Moment Prediction.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaotingzhou/Documents/GitHub/MX-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E2C8FF-7C78-C54F-AD28-CDBC3F26811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0D587E-1B28-AD44-9A9C-67FE1784E575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="28720" windowHeight="16740" activeTab="1" xr2:uid="{ED2461F9-67B0-5E47-BB92-D72D9CEAC80A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="2" xr2:uid="{ED2461F9-67B0-5E47-BB92-D72D9CEAC80A}"/>
   </bookViews>
   <sheets>
     <sheet name="Cognitive Load Classification" sheetId="1" r:id="rId1"/>
     <sheet name="Aha! Moment Prediction" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Cognitive Load Classification</t>
   </si>
@@ -136,12 +137,21 @@
   <si>
     <t>Aha = 0, 1 = 4536, 4536</t>
   </si>
+  <si>
+    <t>Puzzle 1</t>
+  </si>
+  <si>
+    <t>Puzzle 2</t>
+  </si>
+  <si>
+    <t>Both: Pupil + Puzzle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,8 +221,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -315,6 +338,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -327,6 +351,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -716,6 +742,3867 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC352623-69C7-BB4C-B6B1-157546F5FCB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1042458"/>
+          <a:ext cx="7200900" cy="5870575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D519BE7-822F-2940-A73D-9E454B6F87FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8255000" y="0"/>
+          <a:ext cx="7137400" cy="5778500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>551543</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E39B56B-525C-6641-B683-C468723C7237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15893143" y="0"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2197100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED3559B-216E-954B-B413-02BD61A98B66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5987143"/>
+          <a:ext cx="7222671" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF661B35-8889-D749-AEE6-3582E4EFADA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11974286"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B33256-AF64-6045-8635-EF08280513C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7910286" y="5787571"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71476C49-9A6C-4947-B690-EFC726F9DA2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15875000" y="6186714"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E087389B-4DB7-3E4B-9367-73AC3137B237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17761857"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A33EE45-7123-2145-A73A-1E0575618D54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7910286" y="11575143"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8DC073-6EF3-6B4A-8FB2-630E2F7E206C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15875000" y="11974286"/>
+          <a:ext cx="7298871" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B279D4-18E5-B741-A673-8C222A52FCB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23549429"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1174F584-0167-D746-A2A5-AC0F485E68A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7910286" y="17562286"/>
+          <a:ext cx="7108371" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>728134</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9BA54C-C33B-E644-ADC0-1D25ED1FD3E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15815734" y="19507200"/>
+          <a:ext cx="7349067" cy="5778500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155AEE24-DA92-B246-B5DB-5E016707284F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7910286" y="23549429"/>
+          <a:ext cx="7387771" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48E7EAA-15B5-D243-9855-4C92DA316EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29536571"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7FEB2E-EEED-8446-9059-588A4F004A42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15875000" y="23749000"/>
+          <a:ext cx="7222671" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4397D38B-1A95-914C-891C-2EBAF2EB60CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="35324143"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A54F250-402B-864E-AF9D-F6CA9ECA0E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="41111714"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2197100</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFE19B9-9E29-2249-89BD-DF21071EF375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="46899285"/>
+          <a:ext cx="7222671" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35405005-6F32-FD4C-9734-2A14B0FE279F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15875000" y="29935714"/>
+          <a:ext cx="7387771" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CE66F2-CA04-1742-A632-17208918EF79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7910286" y="29736143"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7643725A-B281-A049-9540-A7DE835436C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="52686857"/>
+          <a:ext cx="7108371" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A03D41E-CFEE-A149-80E0-ED4E110E077F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="58474428"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A82409-BD4D-6546-AFE4-3BB977630BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="64262000"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2260600</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4110BD-8AEB-AB42-853E-8FA02177FE5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="70049571"/>
+          <a:ext cx="7286171" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>199571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B65DA1-49E8-0940-8DE5-64D03CE5CDB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="75837142"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0729476B-F3FD-384D-A03E-EC7FBE734D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="81624714"/>
+          <a:ext cx="7108371" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2197100</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1181E221-693A-EF4D-8A41-910ED4B7F6FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="87611857"/>
+          <a:ext cx="7222671" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>503</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E528583-0CD2-414B-971E-BB64D7C3EA2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="93599000"/>
+          <a:ext cx="7209971" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB0F874-ADC8-3642-BCA0-BE60F63BFA62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15875000" y="35922857"/>
+          <a:ext cx="7387771" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334F7A51-4F3D-4E4E-BCB8-DB444245D705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7910286" y="35523714"/>
+          <a:ext cx="7273471" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355D1F9D-8319-0143-890D-F8885857567A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7910286" y="41311285"/>
+          <a:ext cx="7387771" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209491</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>11189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>255210</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>144992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F2EB5C-5D95-5553-1485-F2B2C0DF6C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6813491" y="9504439"/>
+          <a:ext cx="45719" cy="5086803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>569594</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>4536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC21116-E64D-5C4A-BE12-E35EB0F178C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11668125" y="5036911"/>
+          <a:ext cx="45719" cy="5080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>100148</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA30438-05B7-2F46-9769-50E592F1D8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18433143" y="834572"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>807718</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rectangle 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F827DB2-5936-B047-A7D4-5357172138A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2431142" y="6894286"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>689429</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>735148</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rectangle 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD3D2B3-DE83-3A41-8F83-9E4C716DA677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3193143" y="12899571"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154576</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rectangle 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA19A8B-78CC-AC42-854C-99BEFA1EA396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3447143" y="18487571"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>698862</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rectangle 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1A3DF2-44B3-5143-8A33-A83761810413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6495143" y="24384000"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>82005</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>90713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rectangle 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E70762-7D67-2240-A692-FA926438030C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3374572" y="24510999"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>118291</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rectangle 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69AB058-FBCE-DF46-88FC-26A265DCCAE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4245429" y="30389285"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>689429</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>735148</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rectangle 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8D6DE5-91A4-F049-ACA1-A3BA2524BEF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4862286" y="36104286"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>388258</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>433977</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>79829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rectangle 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D20692-F53C-F04A-9EF9-1E107C1A411D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057401" y="41862829"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Rectangle 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC56DFF2-EAE0-B649-9DBE-79A93CE1B47E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6676572" y="47679429"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>562429</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>608148</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Rectangle 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF216B4B-1E68-DD44-BBB7-E38CE1FB3FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3900715" y="53485144"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>707572</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>753291</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Rectangle 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5A9000-B558-DD4E-9349-74737D04B8DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4880429" y="59290857"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>299720</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Rectangle 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E06350-8813-7A42-BEE7-EC263B79DA94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2757715" y="65042143"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>399143</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>145142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444862</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rectangle 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F57D01-D264-9947-A5A5-952217F5B952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="70793428"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>453572</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>499291</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>90713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rectangle 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813D1115-A009-0C4F-A1A8-780EC22BB9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2957286" y="77397428"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27576</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rectangle 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4722701D-6501-F045-BAB0-8758E87D4658}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4154714" y="82350429"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317862</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A529D16A-9E53-104D-AEE5-36D2EF1296B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2775857" y="88392000"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>308429</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>354148</xdr:colOff>
+      <xdr:row>503</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rectangle 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6432A5A-5B79-D243-B597-8E2DCB93639D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="94397285"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>72571</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118290</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rectangle 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3973EB72-FF95-3B49-B9D9-6C98810DE99E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11321142" y="36303858"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>235857</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>281576</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Rectangle 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6676DF-2CAE-4345-A0D1-B89929858B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11484428" y="42018857"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>287261</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>332980</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>202596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rectangle 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFA3EAF-B243-5B4E-B800-99A3708460A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10595428" y="14456834"/>
+          <a:ext cx="45719" cy="5219095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>481148</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="Rectangle 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A21D92-F302-AA41-9D5E-AF26020A1806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18814143" y="12881429"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>526143</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571862</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rectangle 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A20FBB5-95A0-D14E-A4BF-7DEFEB1D443D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9271000" y="18542000"/>
+          <a:ext cx="45719" cy="4916714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>509209</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>554928</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Rectangle 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021E712F-4828-A34B-81FF-452E69F856BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17137742" y="20726401"/>
+          <a:ext cx="45719" cy="5003800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>486228</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>179009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>531947</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>106437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Rectangle 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB0E9BE-6EED-344F-B26B-6423EF11CD6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22093161" y="20905409"/>
+          <a:ext cx="45719" cy="5007428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>509057</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>115358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>746125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Rectangle 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13951B5-B02F-2F4F-870C-2DD41695A882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2160057" y="4655608"/>
+          <a:ext cx="237068" cy="233892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1067,34 +4954,34 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -1260,7 +5147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E6357-263B-5548-93EF-4DDB114BB229}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1287,12 +5174,12 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1305,12 +5192,12 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -1323,12 +5210,12 @@
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -1519,4 +5406,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04E2EB1-1741-194C-B483-D83EA0921C15}">
+  <dimension ref="F3:T3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="15" customWidth="1"/>
+    <col min="20" max="20" width="6" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:11" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>